--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="22395" yWindow="375" windowWidth="26175" windowHeight="11235" tabRatio="204"/>
+    <workbookView xWindow="390" yWindow="420" windowWidth="26175" windowHeight="11235" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TBallGift" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -72,403 +72,914 @@
   </si>
   <si>
     <t>uint32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Path</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Pro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>概率万分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TableName: "TBallGift" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元京东卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10元电话卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金吊坠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200元京东卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30元电话卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/6</t>
+  </si>
+  <si>
+    <t>item/8</t>
+  </si>
+  <si>
+    <t>item/10</t>
+  </si>
+  <si>
+    <t>item/12</t>
+  </si>
+  <si>
+    <t>PushBag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1进包裹2加金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>话费直充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定发货</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>话费直充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定发货</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>京东卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定发货</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>京东卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚拟卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定发货</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄金吊坠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金黄金吊坠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>克</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定发货</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:Apple/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> iPhone X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:64GB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>银色，深空灰色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机发货</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -515,27 +1026,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -876,35 +1390,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="50" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -912,18 +1439,30 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -931,251 +1470,450 @@
         <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>2500</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f>"获得"&amp;TEXT(B5,0)</f>
+        <v>获得100金币</v>
+      </c>
+      <c r="H5" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>2000</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>1500</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8">
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>1500</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f t="shared" ref="G8:G15" si="0">"获得"&amp;TEXT(B8,0)</f>
+        <v>获得1000金币</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9">
+      <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5">
+        <v>500</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>获得500金币</v>
+      </c>
+      <c r="H9" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="5">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>390</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>获得2000金币</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>250</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>获得5000金币</v>
+      </c>
+      <c r="H13" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="5">
+        <v>8488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5">
+        <v>200</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>获得200金币</v>
+      </c>
+      <c r="H15" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
+      <c r="D34"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
@@ -1202,7 +1940,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1258,7 +1996,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -969,6 +969,18 @@
   </si>
   <si>
     <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1390,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1401,11 +1413,12 @@
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1415,23 +1428,26 @@
       <c r="C1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1442,27 +1458,30 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1473,20 +1492,23 @@
         <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1496,24 +1518,25 @@
       <c r="C5" s="5">
         <v>100</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2500</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="H5" s="5" t="str">
         <f>"获得"&amp;TEXT(B5,0)</f>
         <v>获得100金币</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1523,23 +1546,24 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1549,23 +1573,24 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1500</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1575,24 +1600,25 @@
       <c r="C8" s="5">
         <v>1000</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1500</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="str">
-        <f t="shared" ref="G8:G15" si="0">"获得"&amp;TEXT(B8,0)</f>
+      <c r="H8" s="5" t="str">
+        <f t="shared" ref="H8:H15" si="0">"获得"&amp;TEXT(B8,0)</f>
         <v>获得1000金币</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1602,24 +1628,25 @@
       <c r="C9" s="5">
         <v>500</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>获得500金币</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1629,23 +1656,24 @@
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>500</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>840</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1655,24 +1683,25 @@
       <c r="C11" s="5">
         <v>2000</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>390</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="str">
+      <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>获得2000金币</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1682,23 +1711,24 @@
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>250</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1708,24 +1738,25 @@
       <c r="C13" s="5">
         <v>5000</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>200</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="str">
+      <c r="H13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>获得5000金币</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1735,23 +1766,24 @@
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>100</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>8488</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1761,24 +1793,25 @@
       <c r="C15" s="5">
         <v>200</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>50</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="H15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>获得200金币</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1788,129 +1821,148 @@
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>10</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
+      <c r="E34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -1405,7 +1405,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1518,7 +1518,9 @@
       <c r="C5" s="5">
         <v>100</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>6004</v>
+      </c>
       <c r="E5" s="5" t="s">
         <v>51</v>
       </c>
@@ -1546,7 +1548,9 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>2006</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>43</v>
       </c>
@@ -1573,7 +1577,9 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>5004</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>44</v>
       </c>
@@ -1600,7 +1606,9 @@
       <c r="C8" s="5">
         <v>1000</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>6004</v>
+      </c>
       <c r="E8" s="5" t="s">
         <v>51</v>
       </c>
@@ -1628,7 +1636,9 @@
       <c r="C9" s="5">
         <v>500</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>6004</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>51</v>
       </c>
@@ -1656,7 +1666,9 @@
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>3018</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>45</v>
       </c>
@@ -1683,7 +1695,9 @@
       <c r="C11" s="5">
         <v>2000</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>6004</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>51</v>
       </c>
@@ -1711,7 +1725,9 @@
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>2004</v>
+      </c>
       <c r="E12" s="5" t="s">
         <v>46</v>
       </c>
@@ -1738,7 +1754,9 @@
       <c r="C13" s="5">
         <v>5000</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>6004</v>
+      </c>
       <c r="E13" s="5" t="s">
         <v>51</v>
       </c>
@@ -1766,7 +1784,9 @@
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>1001</v>
+      </c>
       <c r="E14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1793,7 +1813,9 @@
       <c r="C15" s="5">
         <v>200</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5">
+        <v>6004</v>
+      </c>
       <c r="E15" s="5" t="s">
         <v>51</v>
       </c>
@@ -1821,7 +1843,9 @@
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <v>5003</v>
+      </c>
       <c r="E16" s="5" t="s">
         <v>48</v>
       </c>

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -171,35 +171,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item/6</t>
-  </si>
-  <si>
-    <t>item/8</t>
-  </si>
-  <si>
-    <t>item/10</t>
-  </si>
-  <si>
-    <t>item/12</t>
-  </si>
-  <si>
     <t>PushBag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1进包裹2加金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1405,7 +1381,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1414,7 +1390,7 @@
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="61.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1429,7 +1405,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>21</v>
@@ -1438,13 +1414,13 @@
         <v>22</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1458,7 +1434,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1492,7 +1468,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>23</v>
@@ -1501,11 +1477,11 @@
         <v>27</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1521,8 +1497,9 @@
       <c r="D5" s="5">
         <v>6004</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>51</v>
+      <c r="E5" s="5" t="str">
+        <f>"item/"&amp;TEXT(D5,0)</f>
+        <v>item/6004</v>
       </c>
       <c r="F5">
         <v>2500</v>
@@ -1551,8 +1528,9 @@
       <c r="D6" s="5">
         <v>2006</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>43</v>
+      <c r="E6" s="5" t="str">
+        <f t="shared" ref="E6:E16" si="0">"item/"&amp;TEXT(D6,0)</f>
+        <v>item/2006</v>
       </c>
       <c r="F6">
         <v>2000</v>
@@ -1561,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I6" s="5">
         <v>50</v>
@@ -1580,8 +1558,9 @@
       <c r="D7" s="5">
         <v>5004</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>44</v>
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>item/5004</v>
       </c>
       <c r="F7">
         <v>1500</v>
@@ -1590,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I7" s="5">
         <v>10</v>
@@ -1609,8 +1588,9 @@
       <c r="D8" s="5">
         <v>6004</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>51</v>
+      <c r="E8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>item/6004</v>
       </c>
       <c r="F8">
         <v>1500</v>
@@ -1619,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="5" t="str">
-        <f t="shared" ref="H8:H15" si="0">"获得"&amp;TEXT(B8,0)</f>
+        <f t="shared" ref="H8:H15" si="1">"获得"&amp;TEXT(B8,0)</f>
         <v>获得1000金币</v>
       </c>
       <c r="I8" s="5">
@@ -1639,8 +1619,9 @@
       <c r="D9" s="5">
         <v>6004</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>51</v>
+      <c r="E9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>item/6004</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -1649,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>获得500金币</v>
       </c>
       <c r="I9" s="5">
@@ -1669,8 +1650,9 @@
       <c r="D10" s="5">
         <v>3018</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>45</v>
+      <c r="E10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>item/3018</v>
       </c>
       <c r="F10">
         <v>500</v>
@@ -1679,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I10" s="5">
         <v>840</v>
@@ -1698,8 +1680,9 @@
       <c r="D11" s="5">
         <v>6004</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>51</v>
+      <c r="E11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>item/6004</v>
       </c>
       <c r="F11">
         <v>390</v>
@@ -1708,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>获得2000金币</v>
       </c>
       <c r="I11" s="5">
@@ -1728,8 +1711,9 @@
       <c r="D12" s="5">
         <v>2004</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>46</v>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>item/2004</v>
       </c>
       <c r="F12">
         <v>250</v>
@@ -1738,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I12" s="5">
         <v>200</v>
@@ -1757,8 +1741,9 @@
       <c r="D13" s="5">
         <v>6004</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>51</v>
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>item/6004</v>
       </c>
       <c r="F13">
         <v>200</v>
@@ -1767,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>获得5000金币</v>
       </c>
       <c r="I13" s="5">
@@ -1787,8 +1772,9 @@
       <c r="D14" s="5">
         <v>1001</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>47</v>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>item/1001</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -1797,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I14" s="5">
         <v>8488</v>
@@ -1816,8 +1802,9 @@
       <c r="D15" s="5">
         <v>6004</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>51</v>
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>item/6004</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -1826,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>获得200金币</v>
       </c>
       <c r="I15" s="5">
@@ -1846,8 +1833,9 @@
       <c r="D16" s="5">
         <v>5003</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>48</v>
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>item/5003</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -1856,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I16" s="5">
         <v>30</v>

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D5" sqref="D5:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1495,11 +1495,11 @@
         <v>100</v>
       </c>
       <c r="D5" s="5">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>"item/"&amp;TEXT(D5,0)</f>
-        <v>item/6004</v>
+        <v>item/6003</v>
       </c>
       <c r="F5">
         <v>2500</v>
@@ -1586,11 +1586,11 @@
         <v>1000</v>
       </c>
       <c r="D8" s="5">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item/6004</v>
+        <v>item/6003</v>
       </c>
       <c r="F8">
         <v>1500</v>
@@ -1617,11 +1617,11 @@
         <v>500</v>
       </c>
       <c r="D9" s="5">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item/6004</v>
+        <v>item/6003</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -1678,11 +1678,11 @@
         <v>2000</v>
       </c>
       <c r="D11" s="5">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item/6004</v>
+        <v>item/6003</v>
       </c>
       <c r="F11">
         <v>390</v>
@@ -1739,11 +1739,11 @@
         <v>5000</v>
       </c>
       <c r="D13" s="5">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item/6004</v>
+        <v>item/6003</v>
       </c>
       <c r="F13">
         <v>200</v>
@@ -1800,11 +1800,11 @@
         <v>200</v>
       </c>
       <c r="D15" s="5">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item/6004</v>
+        <v>item/6003</v>
       </c>
       <c r="F15">
         <v>50</v>

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D16"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1502,7 +1502,7 @@
         <v>item/6003</v>
       </c>
       <c r="F5">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>item/2006</v>
       </c>
       <c r="F6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>item/5004</v>
       </c>
       <c r="F7">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>item/6003</v>
       </c>
       <c r="F8">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         <v>item/6003</v>
       </c>
       <c r="F9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1807,7 +1807,7 @@
         <v>item/6003</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1850,112 +1850,254 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5">
+        <v>100</v>
+      </c>
+      <c r="D17" s="5">
+        <v>6003</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f>"item/"&amp;TEXT(D17,0)</f>
+        <v>item/6003</v>
+      </c>
+      <c r="F17">
+        <v>1250</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>"获得"&amp;TEXT(B17,0)</f>
+        <v>获得100金币</v>
+      </c>
+      <c r="I17" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2006</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" ref="E18:E22" si="2">"item/"&amp;TEXT(D18,0)</f>
+        <v>item/2006</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5004</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>item/5004</v>
+      </c>
+      <c r="F19">
+        <v>750</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6003</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>item/6003</v>
+      </c>
+      <c r="F20">
+        <v>750</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f t="shared" ref="H20:H22" si="3">"获得"&amp;TEXT(B20,0)</f>
+        <v>获得1000金币</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="5">
+        <v>500</v>
+      </c>
+      <c r="D21" s="5">
+        <v>6003</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>item/6003</v>
+      </c>
+      <c r="F21">
+        <v>500</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>获得500金币</v>
+      </c>
+      <c r="I21" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5">
+        <v>200</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6003</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>item/6003</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>获得200金币</v>
+      </c>
+      <c r="I22" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="420" windowWidth="26175" windowHeight="11235" tabRatio="204"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1037,6 +1037,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1378,10 +1381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1501,8 +1505,8 @@
         <f>"item/"&amp;TEXT(D5,0)</f>
         <v>item/6003</v>
       </c>
-      <c r="F5">
-        <v>1250</v>
+      <c r="F5" s="9">
+        <v>1334</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1532,8 +1536,8 @@
         <f t="shared" ref="E6:E16" si="0">"item/"&amp;TEXT(D6,0)</f>
         <v>item/2006</v>
       </c>
-      <c r="F6">
-        <v>1000</v>
+      <c r="F6" s="9">
+        <v>50</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1562,8 +1566,8 @@
         <f t="shared" si="0"/>
         <v>item/5004</v>
       </c>
-      <c r="F7">
-        <v>750</v>
+      <c r="F7" s="9">
+        <v>100</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1592,8 +1596,8 @@
         <f t="shared" si="0"/>
         <v>item/6003</v>
       </c>
-      <c r="F8">
-        <v>750</v>
+      <c r="F8" s="9">
+        <v>1000</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1623,8 +1627,8 @@
         <f t="shared" si="0"/>
         <v>item/6003</v>
       </c>
-      <c r="F9">
-        <v>500</v>
+      <c r="F9" s="9">
+        <v>1000</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1654,8 +1658,8 @@
         <f t="shared" si="0"/>
         <v>item/3018</v>
       </c>
-      <c r="F10">
-        <v>500</v>
+      <c r="F10" s="9">
+        <v>5</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1684,8 +1688,8 @@
         <f t="shared" si="0"/>
         <v>item/6003</v>
       </c>
-      <c r="F11">
-        <v>390</v>
+      <c r="F11" s="9">
+        <v>350</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1715,8 +1719,8 @@
         <f t="shared" si="0"/>
         <v>item/2004</v>
       </c>
-      <c r="F12">
-        <v>250</v>
+      <c r="F12" s="9">
+        <v>10</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1745,7 +1749,7 @@
         <f t="shared" si="0"/>
         <v>item/6003</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
         <v>200</v>
       </c>
       <c r="G13">
@@ -1776,8 +1780,8 @@
         <f t="shared" si="0"/>
         <v>item/1001</v>
       </c>
-      <c r="F14">
-        <v>100</v>
+      <c r="F14" s="9">
+        <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1806,8 +1810,8 @@
         <f t="shared" si="0"/>
         <v>item/6003</v>
       </c>
-      <c r="F15">
-        <v>25</v>
+      <c r="F15" s="9">
+        <v>1200</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1837,8 +1841,8 @@
         <f t="shared" si="0"/>
         <v>item/5003</v>
       </c>
-      <c r="F16">
-        <v>10</v>
+      <c r="F16" s="9">
+        <v>100</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1867,8 +1871,8 @@
         <f>"item/"&amp;TEXT(D17,0)</f>
         <v>item/6003</v>
       </c>
-      <c r="F17">
-        <v>1250</v>
+      <c r="F17" s="9">
+        <v>1300</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1898,8 +1902,8 @@
         <f t="shared" ref="E18:E22" si="2">"item/"&amp;TEXT(D18,0)</f>
         <v>item/2006</v>
       </c>
-      <c r="F18">
-        <v>1000</v>
+      <c r="F18" s="9">
+        <v>50</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1928,8 +1932,8 @@
         <f t="shared" si="2"/>
         <v>item/5004</v>
       </c>
-      <c r="F19">
-        <v>750</v>
+      <c r="F19" s="9">
+        <v>100</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1958,8 +1962,8 @@
         <f t="shared" si="2"/>
         <v>item/6003</v>
       </c>
-      <c r="F20">
-        <v>750</v>
+      <c r="F20" s="9">
+        <v>1000</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1989,8 +1993,8 @@
         <f t="shared" si="2"/>
         <v>item/6003</v>
       </c>
-      <c r="F21">
-        <v>500</v>
+      <c r="F21" s="9">
+        <v>1000</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2020,8 +2024,8 @@
         <f t="shared" si="2"/>
         <v>item/6003</v>
       </c>
-      <c r="F22">
-        <v>25</v>
+      <c r="F22" s="9">
+        <v>1200</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2131,6 +2135,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -180,763 +180,6 @@
   </si>
   <si>
     <t>Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>话费直充</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特征</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>描述</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>固定发货</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>话费直充</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特征</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>描述</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>固定发货</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>京东卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特征</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>描述</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>固定发货</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>京东卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特征</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>描述</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>固定发货</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黄金吊坠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特征</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:9999</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金黄金吊坠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>描述</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>克</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>固定发货</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:Apple/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>苹果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> iPhone X </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特征</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">:64GB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>描述</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>银色，深空灰色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随机发货</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1385,7 +628,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1409,7 +652,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>21</v>
@@ -1424,7 +667,7 @@
         <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1438,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1472,7 +715,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>23</v>
@@ -1485,7 +728,7 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1542,8 +785,9 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>49</v>
+      <c r="H6" s="8" t="str">
+        <f>"实物"&amp;TEXT(B6,0)</f>
+        <v>实物50元京东卡</v>
       </c>
       <c r="I6" s="5">
         <v>50</v>
@@ -1572,8 +816,9 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>46</v>
+      <c r="H7" s="8" t="str">
+        <f>"提取直充"&amp;TEXT(B7,0)</f>
+        <v>提取直充10元电话卡</v>
       </c>
       <c r="I7" s="5">
         <v>10</v>
@@ -1664,8 +909,9 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>50</v>
+      <c r="H10" s="8" t="str">
+        <f>"获得一个"&amp;TEXT(B10,0)</f>
+        <v>获得一个黄金吊坠</v>
       </c>
       <c r="I10" s="5">
         <v>840</v>
@@ -1725,8 +971,9 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>48</v>
+      <c r="H12" s="8" t="str">
+        <f>"实物"&amp;TEXT(B12,0)</f>
+        <v>实物200元京东卡</v>
       </c>
       <c r="I12" s="5">
         <v>200</v>
@@ -1786,8 +1033,9 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>51</v>
+      <c r="H14" s="8" t="str">
+        <f>"获得一台"&amp;TEXT(B14,0)</f>
+        <v>获得一台iPhone X</v>
       </c>
       <c r="I14" s="5">
         <v>8488</v>
@@ -1847,8 +1095,9 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>47</v>
+      <c r="H16" s="8" t="str">
+        <f>"提取直充"&amp;TEXT(B16,0)</f>
+        <v>提取直充30元电话卡</v>
       </c>
       <c r="I16" s="5">
         <v>30</v>
@@ -1908,8 +1157,9 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>49</v>
+      <c r="H18" s="8" t="str">
+        <f>"实物"&amp;TEXT(B18,0)</f>
+        <v>实物50元京东卡</v>
       </c>
       <c r="I18" s="5">
         <v>50</v>
@@ -1938,8 +1188,9 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>46</v>
+      <c r="H19" s="8" t="str">
+        <f>"提取直充"&amp;TEXT(B19,0)</f>
+        <v>提取直充10元电话卡</v>
       </c>
       <c r="I19" s="5">
         <v>10</v>

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -176,10 +176,6 @@
   </si>
   <si>
     <t>1进包裹2加金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,9 +274,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -625,10 +618,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -638,10 +631,9 @@
     <col min="3" max="3" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -652,7 +644,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>21</v>
@@ -664,13 +656,10 @@
         <v>43</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -681,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -693,18 +682,15 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -715,7 +701,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>23</v>
@@ -726,12 +712,11 @@
       <c r="G4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -748,21 +733,17 @@
         <f>"item/"&amp;TEXT(D5,0)</f>
         <v>item/6003</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>1334</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="5" t="str">
-        <f>"获得"&amp;TEXT(B5,0)</f>
-        <v>获得100金币</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="H5" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -779,21 +760,17 @@
         <f t="shared" ref="E6:E16" si="0">"item/"&amp;TEXT(D6,0)</f>
         <v>item/2006</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>50</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="8" t="str">
-        <f>"实物"&amp;TEXT(B6,0)</f>
-        <v>实物50元京东卡</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="H6" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -810,21 +787,17 @@
         <f t="shared" si="0"/>
         <v>item/5004</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>100</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="8" t="str">
-        <f>"提取直充"&amp;TEXT(B7,0)</f>
-        <v>提取直充10元电话卡</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="H7" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -841,21 +814,17 @@
         <f t="shared" si="0"/>
         <v>item/6003</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>1000</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="5" t="str">
-        <f t="shared" ref="H8:H15" si="1">"获得"&amp;TEXT(B8,0)</f>
-        <v>获得1000金币</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="H8" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -872,21 +841,17 @@
         <f t="shared" si="0"/>
         <v>item/6003</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>1000</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>获得500金币</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -903,21 +868,17 @@
         <f t="shared" si="0"/>
         <v>item/3018</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>5</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="8" t="str">
-        <f>"获得一个"&amp;TEXT(B10,0)</f>
-        <v>获得一个黄金吊坠</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="H10" s="5">
         <v>840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -934,21 +895,17 @@
         <f t="shared" si="0"/>
         <v>item/6003</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>350</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>获得2000金币</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="H11" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -965,21 +922,17 @@
         <f t="shared" si="0"/>
         <v>item/2004</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>10</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="8" t="str">
-        <f>"实物"&amp;TEXT(B12,0)</f>
-        <v>实物200元京东卡</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="H12" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -996,21 +949,17 @@
         <f t="shared" si="0"/>
         <v>item/6003</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>200</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>获得5000金币</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="H13" s="5">
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1027,21 +976,17 @@
         <f t="shared" si="0"/>
         <v>item/1001</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="8" t="str">
-        <f>"获得一台"&amp;TEXT(B14,0)</f>
-        <v>获得一台iPhone X</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="H14" s="5">
         <v>8488</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1058,21 +1003,17 @@
         <f t="shared" si="0"/>
         <v>item/6003</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>1200</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>获得200金币</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="H15" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1089,21 +1030,17 @@
         <f t="shared" si="0"/>
         <v>item/5003</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>100</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="8" t="str">
-        <f>"提取直充"&amp;TEXT(B16,0)</f>
-        <v>提取直充30元电话卡</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="H16" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1120,21 +1057,17 @@
         <f>"item/"&amp;TEXT(D17,0)</f>
         <v>item/6003</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>1300</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="5" t="str">
-        <f>"获得"&amp;TEXT(B17,0)</f>
-        <v>获得100金币</v>
-      </c>
-      <c r="I17" s="5">
+      <c r="H17" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1148,24 +1081,20 @@
         <v>2006</v>
       </c>
       <c r="E18" s="5" t="str">
-        <f t="shared" ref="E18:E22" si="2">"item/"&amp;TEXT(D18,0)</f>
+        <f t="shared" ref="E18:E22" si="1">"item/"&amp;TEXT(D18,0)</f>
         <v>item/2006</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>50</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" s="8" t="str">
-        <f>"实物"&amp;TEXT(B18,0)</f>
-        <v>实物50元京东卡</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="H18" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1179,24 +1108,20 @@
         <v>5004</v>
       </c>
       <c r="E19" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>item/5004</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>100</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" s="8" t="str">
-        <f>"提取直充"&amp;TEXT(B19,0)</f>
-        <v>提取直充10元电话卡</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="H19" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1210,24 +1135,20 @@
         <v>6003</v>
       </c>
       <c r="E20" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>item/6003</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>1000</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" s="5" t="str">
-        <f t="shared" ref="H20:H22" si="3">"获得"&amp;TEXT(B20,0)</f>
-        <v>获得1000金币</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="H20" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1241,24 +1162,20 @@
         <v>6003</v>
       </c>
       <c r="E21" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>item/6003</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>1000</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>获得500金币</v>
-      </c>
-      <c r="I21" s="5">
+      <c r="H21" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1272,87 +1189,83 @@
         <v>6003</v>
       </c>
       <c r="E22" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>item/6003</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>1200</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>获得200金币</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="H22" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
